--- a/pred_ohlcv/54_21/2019-11-12 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-633450.683</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -964,7 +964,7 @@
         <v>477296.1985000002</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>409239.6426000001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>539060.0776000002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>540949.2161000002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>511830.3400000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1564759.0662</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1562112.3398</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1557417.2373</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1554556.157800001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1554571.157800001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1554671.157800001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1578540.716721821</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1484051.741321821</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1377823.168921821</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1696599.072838391</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1834279.476038391</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2416779.242338391</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2364514.347638391</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2452989.964526941</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5010576.108409121</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5026978.06850912</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5049787.333609121</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>4594631.277109121</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>4644745.265109121</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4636521.512309121</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4157735.081309121</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4157953.914209121</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4130083.419709121</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4237980.810209121</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>4232691.25330912</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>4257066.21780912</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 HDAC ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>477296.1985000002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>511830.3400000002</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1564759.0662</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1562112.3398</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1557417.2373</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1554556.157800001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1554571.157800001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1554671.157800001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1578540.716721821</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1484051.741321821</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1377823.168921821</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1696599.072838391</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1834279.476038391</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2416779.242338391</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2364514.347638391</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2452989.964526941</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5565290.292558981</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5010576.108409121</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5026978.06850912</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5049787.333609121</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>4594631.277109121</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>4644745.265109121</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4636521.512309121</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4157735.081309121</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4157953.914209121</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4130083.419709121</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4237980.810209121</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>4232691.25330912</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
